--- a/biology/Botanique/Fourrés_éricoïdes_de_Madagascar/Fourrés_éricoïdes_de_Madagascar.xlsx
+++ b/biology/Botanique/Fourrés_éricoïdes_de_Madagascar/Fourrés_éricoïdes_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fourr%C3%A9s_%C3%A9rico%C3%AFdes_de_Madagascar</t>
+          <t>Fourrés_éricoïdes_de_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les Fourrés éricoïdes de Madagascar forment une écorégion terrestre du WWF de l'écozone afrotropicale appartenant au biome terrestre des prairies et brousses d'altitude et que l'on rencontre dans les régions de haute altitude de l'île de Madagascar.
 Elle comprend quatre massifs montagneux: Tsaratanana (2 876 m), Marojejy (2 133 m), Ankaratra (2 643 m) et Andringitra (2 658 m). Les fluctuations de température y sont très importantes (de −11 °C à 30 °C).
